--- a/final/UseCases.xlsx
+++ b/final/UseCases.xlsx
@@ -5,21 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Iniciar sessão" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Terminar sessão" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Visualizar Horário" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Exportar Horário" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Reiniciar Semestre" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Importar lista de Unidades Curr" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Importar lista de alunos e insc" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Definir preferências de uma UC" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="Adicionar aluno" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Gerar horários automaticamente" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="Modificar horário" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="Publicar horários" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="Reiniciar Semestre" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Importar Unidades Curriculares " sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Importar alunos e inscrições" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Definir preferências de uma UC" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Adicionar aluno" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Gerar horários automaticamente" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Modificar horário" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Publicar horários" sheetId="11" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="226">
   <si>
     <t xml:space="preserve">1. Dividir os fluxos 
     em sequências de transacções</t>
@@ -91,10 +90,10 @@
     <t xml:space="preserve">Sistema valida o endereço de email e a palavra-passe.</t>
   </si>
   <si>
-    <t xml:space="preserve">iniciarSessao(email: String, password: String): Sessao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subsistema de Sessões</t>
+    <t xml:space="preserve">iniciarSessao(email: String, password: String): void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsistema de Utilizadores</t>
   </si>
   <si>
     <t xml:space="preserve">3. </t>
@@ -145,6 +144,9 @@
     <t xml:space="preserve">Sistema fecha a sessão previamente iniciada.</t>
   </si>
   <si>
+    <t xml:space="preserve">terminarSessao(): void</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.</t>
   </si>
   <si>
@@ -175,7 +177,7 @@
     <t xml:space="preserve">Obter número do aluno autenticado</t>
   </si>
   <si>
-    <t xml:space="preserve">obterNumeroAlunoAutenticado(sessao: Sessao): String</t>
+    <t xml:space="preserve">obterNumeroAlunoAutenticado(): String</t>
   </si>
   <si>
     <t xml:space="preserve">Sistema apresenta o horário atribuído ao ator.</t>
@@ -184,37 +186,191 @@
     <t xml:space="preserve">Obter horário</t>
   </si>
   <si>
-    <t xml:space="preserve">obterHorario(numeroAluno: String) : Horario</t>
+    <t xml:space="preserve">obterHorario(numeroAluno: String) : Map(String, Set(String))</t>
   </si>
   <si>
     <t xml:space="preserve">Subsistema de Horários</t>
   </si>
   <si>
-    <t xml:space="preserve">Exportar horário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator gera um ficheiro com os turnos do seu horário.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">É gerado um ficheiro com o horário do ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator solicita a exportação do seu horário para um ficheiro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator indica onde esse ficheiro deve ser gravado.</t>
+    <t xml:space="preserve">Reiniciar semestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator elimina todos os dados associados ao curso que dirige, para os importar novamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretor de curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator tem sessão iniciada;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há dados de UCs, turnos, alunos, inscrições, preferências de UCs e horários associados ao curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator solicita a eliminação de todos os dados relacionados com o curso que dirige.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema consulta o nome do curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obter curso dirigido pelo ator autenticado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obterIdCursoDiretorAutenticado(): String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema consulta todos os alunos associados ao curso, e elimina as suas credenciais de autenticação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obter alunos em curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obterAlunosDeCurso(idCurso: String): Set(String)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eliminarCredenciaisDeAlunos(alunos: Set(String)): void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema elimina todos os dados de UCs, turnos, alunos, inscrições, preferências de UCs e horários associados ao curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar dados de curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eliminarDadosCurso(idCurso: String): void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema informa ator de sucesso na operação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importar Unidades Curriculares e turnos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator carrega para o sistema um ficheiro com a lista de Unidades Curriculares e turnos do curso que dirige.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretor de Curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dados que o sistema tem sobre UCs e turnos do curso dirigido pelo ator são os do ficheiro fornecido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator solicita a importação de um ficheiro com Unidades Curriculares e os seus turnos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema confirma que não existem Unidades Curriculares e turnos no curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar se existem UCs num curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verificarCursoTemUCs(idCurso: String): boolean</t>
   </si>
   <si>
     <t xml:space="preserve">4. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sistema exporta o horário do ator para o ficheiro pedido.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exportar horário para ficheiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exportarHorario(caminhoFicheiro: String, numeroAluno: String): void</t>
+    <t xml:space="preserve">Sistema pede o ficheiro com os dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator fornece o ficheiro com os dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sistema confirma que os dados no ficheiro são válidos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">e compatíveis com os dados presentes no sistema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Importar dados de UCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importarUCs(caminhoFicheiro: String, idCurso: String): void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema substitui os dados que tem sobre UCs e turnos do curso dirigido pelo ator pelos dados no ficheiro fornecido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema informa ator de sucesso na operação de importação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLUXO ALTERNATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[existem UCs e turnos para o curso que o ator dirige] (passo 3):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema pergunta se o ator deseja sobrescrever os dados existentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator responde que sim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regressa a 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ator responde que não] (passo 3.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema aborta a importação de dados, informando o ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3)</t>
   </si>
   <si>
     <r>
@@ -225,7 +381,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Subsistema de </t>
+      <t xml:space="preserve">[dados inválidos</t>
     </r>
     <r>
       <rPr>
@@ -234,518 +390,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Horários</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informa ator de sucesso na operação de exportação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reiniciar semestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator elimina todos os dados associados ao curso que dirige, para os importar novamente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diretor de curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator tem sessão iniciada;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não há dados de UCs, turnos, alunos, inscrições, preferências de UCs e horários associados ao curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator solicita a eliminação de todos os dados relacionados com o curso que dirige.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema consulta o nome do curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obter curso dirigido pelo ator autenticado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obterNomeCursoDiretorAutenticado(sessao: Sessao): String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema elimina todos os dados de UCs, turnos, alunos, inscrições, preferências de UCs e horários associados ao curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar dados de curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eliminarDadosCurso(nomeCurso: String): void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subsistema de Cursos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informa ator de sucesso na operação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importar Unidades Curriculares e turnos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator carrega para o sistema um ficheiro com a lista de Unidades Curriculares e turnos do curso que dirige.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diretor de Curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dados que o sistema tem sobre UCs e turnos do curso dirigido pelo ator são os do ficheiro fornecido.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator solicita a importação de um ficheiro com Unidades Curriculares e os seus turnos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema confirma que não existem Unidades Curriculares e turnos no curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar se existem UCs num curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verificarCursoTemUCs(nomeCurso: String): boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema pede o ficheiro com os dados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator fornece o ficheiro com os dados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema confirma que os dados no ficheiro são válidos, e compatíveis com os dados já presentes no sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importar dados de UCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">importarUCs(caminhoFicheiro: String, nomeCurso: String): void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema substitui os dados que tem sobre UCs e turnos do curso dirigido pelo ator pelos dados no ficheiro fornecido.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informa ator de sucesso na operação de importação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLUXO ALTERNATIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[existem UCs e turnos para o curso que o ator dirige] (passo 3):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema pergunta se o ator deseja sobrescrever os dados existentes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator responde que sim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regressa a 4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ator responde que não] (passo 3.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema aborta a importação de dados, informando o ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[dados inválidos ou incompatíveis com dados já no sistema] (passo 6):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importar alunos e inscrições</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator carrega para o sistema um ficheiro com a lista de alunos do curso que dirige, e em que Unidades Curriculares estes se encontram inscritos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator tem sessão iniciada e existem UCs e turnos no curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dados que o sistema tem sobre alunos e inscrições do curso dirigido pelo ator são os do ficheiro fornecido.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator solicita a importação de um ficheiro com alunos e as suas inscrições em UCs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema confirma que não existem alunos e inscrições no curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar se existem alunos num curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verificarCursoTemAlunos(nomeCurso: String): boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema confirma que os dados no ficheiro são válidos, e compatíveis com os dados presentes no sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importar dados de alunos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">importarAlunos(caminhoFicheiro: String, nomeCurso: String): void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema gera uma palavra-passe e um horário vazio para cada aluno importado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema substitui os dados que tem sobre alunos e inscrições do curso dirigido ator pelos dados no ficheiro fornecido.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[existem alunos e inscrições para o curso que o ator dirige] (passo 3):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informa que a operação de importação foi cancelada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir preferências de uma UC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator define, através de um ficheiro de dados, condições relativas a uma Unidade Curricular do curso que dirige, que devem ser respeitadas na geração automática de horários.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As preferências da UC escolhida pelo ator passam a ser as definidas pelo mesmo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator indica que deseja definir as preferências de uma UC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema apresenta a lista de Unidades Curriculares no curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obter unidades curriculares de curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obterUCsDeCurso(nomeCurso: String): List(UC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema pede ao ator que selecione uma Unidade Curricular.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator seleciona uma Unidade Curricular.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema verifica que não existem já preferências para a Unidade Curricular selecionada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar se existem preferências para uma UC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verificarUCTemPreferencias(nomeCurso: String, nomeUC: String): boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema pede o ficheiro com as preferências.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator fornece o ficheiro com as preferências.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importar dados de preferências de uma UC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">importarPreferenciasUC(caminhoFicheiro: String, nomeCurso: String, nomeUC: String): void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema substitui as preferências da UC pelas fornecidas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[existem preferências para a UC selecionada] (passo 6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regressa a 7.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ator responde que não] (passo 6.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema aborta a importação de preferências, informando o ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[dados inválidos ou incompatíveis com dados já no sistema] (passo 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar aluno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator adiciona um novo aluno matriculado no curso que dirige, juntamente com as UCs em que se encontra inscrito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator tem sessão iniciada;
-Existem UCs e turnos do curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluno especificado pelo ator é registado como matriculado no curso dirigido pelo ator, juntamente com as UCs onde se encontra inscrito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator solicita a adição um novo aluno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema pede informação sobre o aluno: número de aluno, nome, endereço eletrónico, e a sua média de curso (se aplicável).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator insere a informação do aluno pedida.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema verifica que não tem registo de um aluno com o mesmo número.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar se aluno com um dado número existe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verificarExistenciaAluno(numeroAluno: String): boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema obtém e apresenta lista de Unidades Curriculares do curso que o ator dirige.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obterUCsDeCurso(nomeCurso: String): List(String)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema pede lista de Unidades Curriculares nas quais o aluno se encontra inscrito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator indica lista de Unidades Curriculares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema regista aluno com uma palavra-passe automaticamente gerada e um horário vazio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registar aluno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registarAluno(numeroAluno: String, nome: String, email: String, media: double): void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema regista as UCs em que o aluno se encontra inscrito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registar UCs de aluno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registarUCsDeAluno(numeroAluno: String, nomeUCs: List(String)): void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[aluno com o mesmo número já existe] (passo 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema aborta a operação, informando o ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerar horários automaticamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator pede que o sistema automaticamente atribua turnos aos alunos do curso que dirige, atribuição esta que deve respeitar condições específicas bem definidas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator tem sessão iniciada;
-Existem UCs e turnos do curso dirigido pelo ator;
-Existem alunos e inscrições no curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada aluno no curso dirigido pelo ator tem um horário atribuído, que ainda é incapaz de consultar;
-Os horários gerados são constituídos pelos turnos que cada aluno precisa de frequentar (ex.: um aluno inscrito em DSS deve ter no seu horário um turno prático e um turno teórico dessa UC).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator solicita a geração automática de horários.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema gera horários, inteligentemente atribuindo turnos aos alunos do curso dirigido pelo ator, de modo a respeitar a pós-condição e a minimizar o número de sobreposições.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gerarHorarios(nomeCurso: String): Map(String, Horario)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema procura e informa ator de sobreposições nos horários gerados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar horários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validarHorarios(horario: Map(String, Horario)): Set(Sobreposicao)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema armazena os horários gerados, ainda como não disponíveis para consulta pelos alunos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armazenar horários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armazenarHorarios(horario: Map(String, Horario)): void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informa ator de sucesso na geração de horários.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[o problema de distribuição de horários não tem solução] (passo 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informa ator de insucesso na geração de horários.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificar horário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator altera que turnos estão e não estão presentes no horário de um aluno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator tem sessão iniciada;
-Existem UCs e turnos no curso dirigido pelo ator;
-Existem alunos e inscrições no curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Horário do aluno passa a ser constituído pelos turnos indicados pelo ator;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Os horário modificado é constituído pelos turnos que o aluno precisa de frequentar;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator solicita a modificação do horário de um aluno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema pede o número do aluno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator providencia número do aluno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema verifica que o aluno inscrito no curso dirigido pelo ator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar se um aluno está inscrito num dado curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verificarSeAlunoInscritoEmCurso(numeroAluno: String, nomeCurso: String): boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema obtém horário de aluno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema apresenta lista de turnos nos quais o aluno se encontra inscrito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ator modifica lista apresentada pelo sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema verifica que o horário do aluno inclui exatamente os turnos que o aluno deve frequentar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar horário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validarHorario(numeroAluno: String, horario: Horario): bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema armazena horário modificado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armazenar horário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armazenarHorario(numeroAluno: String, horario: Horario): void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[aluno não encontrado no curso dirigido pelo ator] (passo 5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informa que o aluno não foi encontrado e cancela a operação.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[horário não </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">inclui exatamente os turnos que o aluno deve frequentar</t>
+      <t xml:space="preserve"> ou incompatíveis com dados já no sistema</t>
     </r>
     <r>
       <rPr>
@@ -755,35 +400,437 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">] (passo 9)</t>
+      <t xml:space="preserve">] (passo 6):</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">6.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importar alunos e inscrições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator carrega para o sistema um ficheiro com a lista de alunos do curso que dirige, e em que Unidades Curriculares estes se encontram inscritos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator tem sessão iniciada e existem UCs e turnos no curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dados que o sistema tem sobre alunos e inscrições do curso dirigido pelo ator são os do ficheiro fornecido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator solicita a importação de um ficheiro com alunos e as suas inscrições em UCs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema confirma que não existem alunos e inscrições no curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar se existem alunos num curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verificarCursoTemAlunos(idCurso: String): boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema confirma que os dados no ficheiro são válidos e compatíveis com os dados presentes no sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importar dados de alunos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importarAlunos(caminhoFicheiro: String, idCurso: String): void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema substitui os dados que tem sobre alunos e inscrições do curso dirigido ator pelos dados no ficheiro fornecido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[existem alunos e inscrições para o curso que o ator dirige] (passo 3):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema informa que a operação de importação foi cancelada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dados inválidos ou incompatíveis com dados já no sistema] (passo 6):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir preferências de uma UC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator define, através de um ficheiro de dados, condições relativas a uma Unidade Curricular do curso que dirige, que devem ser respeitadas na geração automática de horários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As preferências da UC escolhida pelo ator passam a ser as definidas pelo mesmo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator indica que deseja definir as preferências de uma UC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema apresenta a lista de Unidades Curriculares no curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obter unidades curriculares de curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obterUCsDeCurso(idCurso: String): Set(UC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema pede ao ator que selecione uma Unidade Curricular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator seleciona uma Unidade Curricular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema verifica que não existem já preferências para a Unidade Curricular selecionada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar se existem preferências para uma UC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verificarUCTemPreferencias(idCurso: String, nomeUC: String): boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema pede o ficheiro com as preferências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator fornece o ficheiro com as preferências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema confirma que os dados no ficheiro são válidos, e compatíveis com os dados presentes no sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importar dados de preferências de uma UC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importarPreferenciasUC(caminhoFicheiro: String, idCurso: String, nomeUC: String): void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema substitui as preferências da UC pelas fornecidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[existem preferências para a UC selecionada] (passo 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regressa a 7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ator responde que não] (passo 6.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema aborta a importação de preferências, informando o ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dados inválidos ou incompatíveis com dados já no sistema] (passo 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionar aluno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator adiciona um novo aluno matriculado no curso que dirige, juntamente com as UCs em que se encontra inscrito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator tem sessão iniciada;
+Existem UCs e turnos do curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluno especificado pelo ator é registado como matriculado no curso dirigido pelo ator, juntamente com as UCs onde se encontra inscrito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator solicita a adição um novo aluno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema pede número do aluno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator insere a informação do aluno pedida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema verifica que não tem registo de um aluno com o mesmo número.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar se aluno com um dado número existe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verificarExistenciaAluno(numeroAluno: String): boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema consulta o identificador do curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema obtém e apresenta lista de Unidades Curriculares do curso que o ator dirige.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obterUCsDeCurso(idCurso: String): Set(String)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema pede lista de Unidades Curriculares nas quais o aluno se encontra inscrito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator indica lista de Unidades Curriculares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema regista aluno no curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registar aluno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registarAluno(idCurso: String, numeroAluno: String): void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema regista as UCs em que o aluno se encontra inscrito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registar UCs de aluno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registarUCsDeAluno(numeroAluno: String, idUCs: Set(String)): void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[aluno com o mesmo número já existe] (passo 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema aborta a operação, informando o ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerar horários automaticamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator pede que o sistema automaticamente atribua turnos aos alunos do curso que dirige, atribuição esta que deve respeitar condições específicas bem definidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator tem sessão iniciada;
+Existem UCs e turnos do curso dirigido pelo ator;
+Existem alunos e inscrições no curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada aluno no curso dirigido pelo ator tem um horário atribuído, que ainda é incapaz de consultar;
+Os horários gerados são constituídos pelos turnos que cada aluno precisa de frequentar (ex.: um aluno inscrito em DSS deve ter no seu horário um turno prático e um turno teórico dessa UC).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator solicita a geração automática de horários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema gera horários, inteligentemente atribuindo turnos aos alunos do curso dirigido pelo ator, de modo a respeitar a pós-condição e a minimizar o número de sobreposições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerarHorarios(idCurso: String): void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema armazena os horários gerados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema procura e informa ator de sobreposições nos horários gerados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurar sobreposicões</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">procurarSobreposicoes(idCurso: String): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Collection(Sobreposicao)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema informa ator de sucesso na geração de horários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[o problema de distribuição de horários não tem solução] (passo 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema informa ator de insucesso na geração de horários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar horário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator altera que turnos estão e não estão presentes no horário de um aluno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator tem sessão iniciada;
+Existem UCs e turnos no curso dirigido pelo ator;
+Existem alunos e inscrições no curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horário do aluno passa a ser constituído pelos turnos indicados pelo ator;
+Os horário modificado é constituído apenas por turnos de UCs que o aluno precisa de frequentar;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator solicita a modificação do horário de um aluno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema pede o número do aluno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator providencia número do aluno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema verifica que o aluno inscrito no curso dirigido pelo ator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar se um aluno está inscrito num dado curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verificarSeAlunoInscritoEmCurso(numeroAluno: String, idCurso: String): boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema obtém horário de aluno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema apresenta lista de turnos nos quais o aluno se encontra inscrito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obterTurnosDeUC(nomeUC: String): Set(String)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ator modifica lista apresentada pelo sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema verifica que o horário do aluno não inclui turnos de UCs que o aluno não deva frequentar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar horário</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">validarHorario(numeroAluno: String, horario: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Map(String, Set(String))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">): bool</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema armazena horário modificado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armazenar horário</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">armazenarHorario(idCurso: String, numeroAluno: String, horario: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Map(String, Set(String))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">): void</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[aluno não encontrado no curso dirigido pelo ator] (passo 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema informa que o aluno não foi encontrado e cancela a operação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[horário não inclui exatamente os turnos que o aluno deve frequentar] (passo 9)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sistema informa ator de insucesso na atribuição do horário.</t>
   </si>
   <si>
     <t xml:space="preserve">Publicar horários</t>
   </si>
   <si>
-    <t xml:space="preserve">Ator torna visíveis para os alunos os horários que construiu.</t>
+    <t xml:space="preserve">Ator gera credenciais para os alunos inscritos no curso que dirige possam aceder aos seus horários.</t>
   </si>
   <si>
     <t xml:space="preserve">Ator tem sessão iniciada e existem alunos e inscrições no curso dirigido pelo ator.</t>
   </si>
   <si>
-    <t xml:space="preserve">Os horários construídos pelo ator são registados como disponíveis para consulta pelos alunos e os alunos inscritos no curso dirigido pelo ator são informados por correio eletrónico dos novos horários.</t>
+    <t xml:space="preserve">Os alunos inscritos no curso dirigido pelo ator têm credenciais atribuídas e são informados por correio eletrónico dos novos horários.</t>
   </si>
   <si>
     <t xml:space="preserve">Ator solicita a publicação dos horários que construiu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistema regista que os horários dos alunos inscritos no curso dirigido pelo ator podem ser consultados pelos mesmos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registar horários como públicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publicarHorarios(nomeCurso: String): void</t>
+    <t xml:space="preserve">Sistema obtém alunos do curso dirigido pelo ator e gera as suas credenciais de autenticação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerarCredenciaisDeAlunos(alunos: Set(String)): void</t>
   </si>
   <si>
     <t xml:space="preserve">Sistema envia mensagens de correio eletrónico aos alunos cujos horários foram publicados, informando-os de tal, e contendo as suas palavras-passe.</t>
@@ -792,7 +839,7 @@
     <t xml:space="preserve">Enviar e-mails a notificar alunos de um curso</t>
   </si>
   <si>
-    <t xml:space="preserve">notificarAlunos(nomeCurso: String): List(String)</t>
+    <t xml:space="preserve">notificarAlunos(idCurso: String): Set(String)</t>
   </si>
   <si>
     <t xml:space="preserve">[pelo menos um e-mail não conseguiu ser enviado] (passo 4)</t>
@@ -809,7 +856,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -869,6 +916,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -946,7 +999,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -956,7 +1009,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1027,16 +1080,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1045,10 +1098,6 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1242,8 +1291,8 @@
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1457,7 +1506,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E1:E8"/>
@@ -1489,21 +1538,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:J1048576"/>
+  <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="65.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="43.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="66.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="95.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="47.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.45"/>
@@ -1530,20 +1579,20 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -1555,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -1569,24 +1618,24 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="81.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>181</v>
+      <c r="D7" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -1616,7 +1665,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -1624,145 +1673,243 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>71</v>
+      <c r="D11" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5" t="s">
+      <c r="D23" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D26" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="5"/>
+      <c r="E28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:E8"/>
@@ -1771,7 +1918,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B17 B20 B26 B29" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B22:B23 B26 B31" type="list">
       <formula1>"FLUXO DE EXCEÇÃO,FLUXO ALTERNATIVO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1791,21 +1938,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:J34"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="85.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="48.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="56.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="47.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.45"/>
@@ -1832,7 +1979,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -1845,7 +1992,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -1857,38 +2004,43 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="8"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="67.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>197</v>
+      <c r="D7" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -1918,7 +2070,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -1926,232 +2078,128 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>199</v>
+      <c r="D11" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>200</v>
+        <v>38</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="J12" s="10"/>
+      <c r="F12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>77</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>205</v>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>206</v>
+    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
       <c r="J20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="5"/>
-      <c r="E27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="19"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:E8"/>
@@ -2160,270 +2208,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B21:B22 B25 B30" type="list">
-      <formula1>"FLUXO DE EXCEÇÃO,FLUXO ALTERNATIVO"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:J33"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="46.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="62.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="47.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="14.45"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="8"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E1:E8"/>
-    <mergeCell ref="F1:F8"/>
-    <mergeCell ref="G1:G8"/>
-    <mergeCell ref="H1:H8"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B15 B20 B26 B29" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B16 B21 B27 B30" type="list">
       <formula1>"FLUXO DE EXCEÇÃO,FLUXO ALTERNATIVO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2445,8 +2230,8 @@
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -2585,15 +2370,19 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -2665,8 +2454,8 @@
   </sheetPr>
   <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -2677,7 +2466,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="43.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="57.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="61.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="47.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.45"/>
@@ -2704,7 +2493,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -2717,7 +2506,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -2729,7 +2518,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -2748,7 +2537,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -2760,7 +2549,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -2790,7 +2579,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -2802,14 +2591,14 @@
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>20</v>
@@ -2817,20 +2606,20 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,7 +2662,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:E8"/>
@@ -2902,10 +2691,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:J28"/>
+  <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -2916,11 +2705,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="43.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="69.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="77.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="47.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="14.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2943,20 +2731,20 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -2968,7 +2756,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -2982,24 +2770,24 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -3024,12 +2812,12 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="5" t="s">
-        <v>15</v>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -3037,94 +2825,118 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>56</v>
+      <c r="D11" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>45</v>
+      <c r="F11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="5" t="s">
-        <v>62</v>
+    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
       <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:E8"/>
@@ -3133,7 +2945,7 @@
     <mergeCell ref="H1:H8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B15:B16 B21 B24" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B17:B18 B23 B26" type="list">
       <formula1>"FLUXO DE EXCEÇÃO,FLUXO ALTERNATIVO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3153,254 +2965,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:J28"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="43.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="69.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="47.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.45"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="8"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E1:E8"/>
-    <mergeCell ref="F1:F8"/>
-    <mergeCell ref="G1:G8"/>
-    <mergeCell ref="H1:H8"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B15:B16 B21 B24" type="list">
-      <formula1>"FLUXO DE EXCEÇÃO,FLUXO ALTERNATIVO"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -3439,7 +3007,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -3452,7 +3020,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -3464,7 +3032,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -3495,7 +3063,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -3525,7 +3093,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
@@ -3537,14 +3105,14 @@
         <v>17</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>20</v>
@@ -3552,28 +3120,28 @@
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3583,40 +3151,40 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="13"/>
@@ -3625,10 +3193,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="11"/>
@@ -3643,13 +3211,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="11"/>
@@ -3657,10 +3225,10 @@
     </row>
     <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E20" s="12"/>
       <c r="G20" s="12"/>
@@ -3668,10 +3236,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="11"/>
@@ -3679,10 +3247,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="11"/>
@@ -3698,10 +3266,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="11"/>
@@ -3709,10 +3277,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="11"/>
@@ -3723,15 +3291,15 @@
       <c r="G26" s="12"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E27" s="12"/>
       <c r="G27" s="11"/>
@@ -3739,10 +3307,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="12"/>
@@ -3775,15 +3343,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:J33"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -3821,7 +3389,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -3834,7 +3402,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -3846,7 +3414,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -3865,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -3877,19 +3445,23 @@
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,7 +3479,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -3919,14 +3491,14 @@
         <v>17</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>20</v>
@@ -3934,20 +3506,20 @@
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>77</v>
+        <v>113</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,7 +3527,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3965,10 +3537,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3977,40 +3549,44 @@
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>77</v>
+        <v>116</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>123</v>
+      <c r="A16" s="5"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -4018,139 +3594,122 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="19"/>
+    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="G20" s="11"/>
+    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>126</v>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="12"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>104</v>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="12"/>
+      <c r="C25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
+      <c r="E26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="11"/>
+      <c r="C27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="12"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="E28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D30" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E1:E8"/>
@@ -4160,6 +3719,422 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B18:B19 B24 B27" type="list">
+      <formula1>"FLUXO DE EXCEÇÃO,FLUXO ALTERNATIVO"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:J33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="59.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="51.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="96.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="47.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="14.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="8"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="9"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="21"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E1:E8"/>
+    <mergeCell ref="F1:F8"/>
+    <mergeCell ref="G1:G8"/>
+    <mergeCell ref="H1:H8"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B20:B21 B26 B29" type="list">
@@ -4182,21 +4157,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:J33"/>
+  <dimension ref="B1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D5" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="59.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="51.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="96.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="47.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="111.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="47.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.45"/>
@@ -4223,7 +4198,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -4236,7 +4211,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -4248,7 +4223,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -4262,24 +4237,24 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -4309,7 +4284,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -4320,87 +4295,87 @@
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>71</v>
+      <c r="D11" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>77</v>
-      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="13" t="s">
-        <v>138</v>
+      <c r="F15" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>140</v>
+        <v>87</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
@@ -4409,45 +4384,51 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>120</v>
+        <v>135</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="13" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="F19" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="J19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4459,124 +4440,45 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="5" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="12"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="22"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="E1:E8"/>
     <mergeCell ref="F1:F8"/>
     <mergeCell ref="G1:G8"/>
     <mergeCell ref="H1:H8"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B20:B21 B26 B29" type="list">
@@ -4599,21 +4501,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:J1048576"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="65.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="47.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="111.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="43.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="74.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="47.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.45"/>
@@ -4640,7 +4542,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -4653,7 +4555,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -4665,7 +4567,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -4679,24 +4581,24 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>158</v>
+      <c r="D7" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -4726,184 +4628,141 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="5" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>160</v>
+      <c r="D11" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1" t="s">
-        <v>62</v>
+      <c r="F14" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="11"/>
+    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="s">
-        <v>95</v>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="21"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>77</v>
-      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
+      <c r="D21" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="9"/>
@@ -4913,17 +4772,17 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="E1:E8"/>
     <mergeCell ref="F1:F8"/>
     <mergeCell ref="G1:G8"/>
     <mergeCell ref="H1:H8"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B20:B21 B26 B29" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B17 B20 B26 B29" type="list">
       <formula1>"FLUXO DE EXCEÇÃO,FLUXO ALTERNATIVO"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/final/UseCases.xlsx
+++ b/final/UseCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Iniciar sessão" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="225">
   <si>
     <t xml:space="preserve">1. Dividir os fluxos 
     em sequências de transacções</t>
@@ -301,6 +301,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">e compatíveis com os dados presentes no sistema</t>
     </r>
@@ -373,35 +374,7 @@
     <t xml:space="preserve">(3)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[dados inválidos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ou incompatíveis com dados já no sistema</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">] (passo 6):</t>
-    </r>
+    <t xml:space="preserve">[dados inválidos ou incompatíveis com dados já no sistema] (passo 6):</t>
   </si>
   <si>
     <t xml:space="preserve">6.1.</t>
@@ -447,9 +420,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sistema informa que a operação de importação foi cancelada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[dados inválidos ou incompatíveis com dados já no sistema] (passo 6):</t>
   </si>
   <si>
     <t xml:space="preserve">Definir preferências de uma UC</t>
@@ -600,7 +570,7 @@
     <t xml:space="preserve">Registar UCs de aluno</t>
   </si>
   <si>
-    <t xml:space="preserve">registarUCsDeAluno(numeroAluno: String, idUCs: Set(String)): void</t>
+    <t xml:space="preserve">registarUCsDeAluno(idCurso: String, numeroAluno: String, idUCs: Set(String)): void</t>
   </si>
   <si>
     <t xml:space="preserve">[aluno com o mesmo número já existe] (passo 4)</t>
@@ -645,25 +615,7 @@
     <t xml:space="preserve">Procurar sobreposicões</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">procurarSobreposicoes(idCurso: String): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Collection(Sobreposicao)</t>
-    </r>
+    <t xml:space="preserve">procurarSobreposicoes(idCurso: String): Collection(Sobreposicao)</t>
   </si>
   <si>
     <t xml:space="preserve">Sistema informa ator de sucesso na geração de horários.</t>
@@ -726,35 +678,7 @@
     <t xml:space="preserve">Validar horário</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">validarHorario(numeroAluno: String, horario: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Map(String, Set(String))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">): bool</t>
-    </r>
+    <t xml:space="preserve">validarHorario(numeroAluno: String, horario: Map(String, Set(String))): bool</t>
   </si>
   <si>
     <t xml:space="preserve">Sistema armazena horário modificado.</t>
@@ -763,35 +687,7 @@
     <t xml:space="preserve">Armazenar horário</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">armazenarHorario(idCurso: String, numeroAluno: String, horario: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Map(String, Set(String))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">): void</t>
-    </r>
+    <t xml:space="preserve">armazenarHorario(idCurso: String, numeroAluno: String, horario: Map(String, Set(String))): void</t>
   </si>
   <si>
     <t xml:space="preserve">11.</t>
@@ -856,7 +752,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -922,25 +818,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1080,7 +958,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1552,7 +1430,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="1" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="95.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="1" width="95.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="47.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.45"/>
@@ -1579,7 +1457,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -1592,7 +1470,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -1623,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -1635,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -1665,7 +1543,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -1677,7 +1555,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
@@ -1689,7 +1567,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1721,14 +1599,14 @@
         <v>70</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>52</v>
@@ -1739,7 +1617,7 @@
         <v>83</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
@@ -1752,17 +1630,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -1771,7 +1649,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H17" s="11"/>
     </row>
@@ -1780,26 +1658,26 @@
         <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>52</v>
@@ -1807,17 +1685,17 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>52</v>
@@ -1825,7 +1703,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>71</v>
@@ -1851,7 +1729,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" s="11"/>
       <c r="G23" s="11"/>
@@ -1859,10 +1737,10 @@
     </row>
     <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="E24" s="12"/>
       <c r="G24" s="12"/>
@@ -1881,7 +1759,7 @@
         <v>99</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="11"/>
@@ -1889,10 +1767,10 @@
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="11"/>
@@ -1940,7 +1818,7 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1979,7 +1857,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -1992,7 +1870,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -2028,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -2040,7 +1918,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -2070,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -2102,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
@@ -2125,7 +2003,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>20</v>
@@ -2138,14 +2016,14 @@
         <v>80</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>222</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>223</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>20</v>
@@ -2166,7 +2044,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -2175,10 +2053,10 @@
     </row>
     <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
@@ -3161,7 +3039,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
         <v>83</v>
       </c>
@@ -3291,7 +3169,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3690,7 +3568,7 @@
         <v>103</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E27" s="12"/>
       <c r="G27" s="11"/>
@@ -3782,7 +3660,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -3795,7 +3673,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -3838,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -3868,7 +3746,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -3898,14 +3776,14 @@
         <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>52</v>
@@ -3916,7 +3794,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3929,7 +3807,7 @@
         <v>70</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3941,14 +3819,14 @@
         <v>83</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>52</v>
@@ -3959,7 +3837,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
@@ -3971,7 +3849,7 @@
         <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -3980,17 +3858,17 @@
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>52</v>
@@ -3998,10 +3876,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
@@ -4024,7 +3902,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="11"/>
@@ -4043,7 +3921,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>96</v>
@@ -4054,10 +3932,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="11"/>
@@ -4076,7 +3954,7 @@
         <v>99</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="11"/>
@@ -4084,10 +3962,10 @@
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="E27" s="11"/>
       <c r="G27" s="11"/>
@@ -4106,7 +3984,7 @@
         <v>103</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29" s="12"/>
       <c r="G29" s="11"/>
@@ -4114,10 +3992,10 @@
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="11"/>
       <c r="G30" s="12"/>
@@ -4159,7 +4037,7 @@
   </sheetPr>
   <dimension ref="B1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -4198,7 +4076,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -4211,7 +4089,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -4242,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -4254,7 +4132,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -4284,7 +4162,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -4296,7 +4174,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
@@ -4308,7 +4186,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -4321,14 +4199,14 @@
         <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>52</v>
@@ -4339,7 +4217,7 @@
         <v>70</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="11" t="s">
@@ -4357,14 +4235,14 @@
         <v>83</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>52</v>
@@ -4375,7 +4253,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
@@ -4387,7 +4265,7 @@
         <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -4396,17 +4274,17 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>52</v>
@@ -4414,17 +4292,17 @@
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>52</v>
@@ -4446,7 +4324,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="11"/>
@@ -4454,10 +4332,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="12"/>
@@ -4542,7 +4420,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -4555,7 +4433,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -4586,7 +4464,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -4598,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -4628,7 +4506,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -4658,14 +4536,14 @@
         <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>52</v>
@@ -4676,7 +4554,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
@@ -4685,19 +4563,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>52</v>
@@ -4709,7 +4587,7 @@
         <v>83</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4730,7 +4608,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
@@ -4742,7 +4620,7 @@
         <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="13"/>
@@ -4762,7 +4640,7 @@
       <c r="D20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="9"/>
